--- a/doc/04_DB定義書_KSHMY.xlsx
+++ b/doc/04_DB定義書_KSHMY.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABA7760-4354-44D1-A725-1D9D14945E38}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377DA178-F94C-4544-A076-053EEB31CB71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="store" sheetId="4" r:id="rId3"/>
     <sheet name="reputation" sheetId="5" r:id="rId4"/>
     <sheet name="calendar" sheetId="6" r:id="rId5"/>
-    <sheet name="１" sheetId="8" r:id="rId6"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId7"/>
+    <sheet name="prefecture" sheetId="9" r:id="rId6"/>
+    <sheet name="１" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="102">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -544,6 +545,84 @@
   </si>
   <si>
     <t>color</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefecture</t>
+  </si>
+  <si>
+    <t>prefecture</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>都道府県</t>
+    <rPh sb="0" eb="4">
+      <t>トドウフケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プルダウンで関東圏の都道府県表示</t>
+    <rPh sb="6" eb="9">
+      <t>カントウケン</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>トドウフケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県番号</t>
+    <rPh sb="0" eb="3">
+      <t>ケンバンゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>緯度</t>
+    <rPh sb="0" eb="2">
+      <t>イド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経度</t>
+    <rPh sb="0" eb="2">
+      <t>ケイド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>県名</t>
+    <rPh sb="0" eb="2">
+      <t>ケンメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ido</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>keido</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>prefecture_number</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>double</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユニーク制約つけるかも</t>
+    <rPh sb="4" eb="6">
+      <t>セイヤク</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1008,7 +1087,7 @@
   <dimension ref="A1:F38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1135,10 +1214,18 @@
       <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="B12" s="3">
+        <v>5</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -1328,10 +1415,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L32"/>
+  <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1440,7 +1527,7 @@
         <v>35</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>47</v>
+        <v>82</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>60</v>
@@ -1461,7 +1548,7 @@
       </c>
       <c r="L10" t="str">
         <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>number int ,</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1566,7 +1653,7 @@
       </c>
       <c r="J14" s="3"/>
       <c r="L14" t="str">
-        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
         <v>workspace varchar (20),</v>
       </c>
     </row>
@@ -1575,27 +1662,25 @@
         <v>6</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E15" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="L15" t="str">
-        <f>C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
-        <v>first varchar (3),</v>
+      <c r="I15" s="6"/>
+      <c r="J15" s="3" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -1603,10 +1688,10 @@
         <v>7</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>31</v>
@@ -1622,8 +1707,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="L16" t="str">
-        <f t="shared" ref="L16:L30" si="0">C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
-        <v>second varchar (3),</v>
+        <f>C16&amp;" "&amp;D16&amp;" "&amp;IF(E16&lt;&gt;"","("&amp;E16&amp;")","")&amp;IF(C17&lt;&gt;"",",","")</f>
+        <v>first varchar (3),</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -1631,10 +1716,10 @@
         <v>8</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>31</v>
@@ -1650,24 +1735,36 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="L17" t="str">
-        <f t="shared" si="0"/>
-        <v>third varchar (3)</v>
+        <f t="shared" ref="L17:L31" si="0">C17&amp;" "&amp;D17&amp;" "&amp;IF(E17&lt;&gt;"","("&amp;E17&amp;")","")&amp;IF(C18&lt;&gt;"",",","")</f>
+        <v>second varchar (3),</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="3">
+        <v>3</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
+      <c r="H18" s="3" t="s">
+        <v>32</v>
+      </c>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="L18" t="str">
         <f t="shared" si="0"/>
-        <v xml:space="preserve">  </v>
+        <v>third varchar (3)</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -1864,12 +1961,28 @@
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="L31" t="s">
-        <v>20</v>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="L31" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
+      <c r="L32" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3464,10 +3577,528 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80ECA74-8016-4F38-8962-412A76A3AEC3}">
+  <dimension ref="A1:L30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="16.08984375" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="16.36328125" customWidth="1"/>
+    <col min="6" max="6" width="9.7265625" customWidth="1"/>
+    <col min="7" max="7" width="7.26953125" customWidth="1"/>
+    <col min="8" max="8" width="9.453125" customWidth="1"/>
+    <col min="9" max="9" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="19" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" t="str">
+        <f>"create table "&amp;C5&amp;" ("</f>
+        <v>create table prefecture (</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="L10" t="str">
+        <f>C10&amp;" "&amp;D10&amp;" "&amp;IF(E10&lt;&gt;"","("&amp;E10&amp;")","")&amp;IF(C11&lt;&gt;"",",","")</f>
+        <v>number int ,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>2</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="L11" t="str">
+        <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
+        <v>ido double ,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>3</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+      <c r="L12" t="str">
+        <f>C12&amp;" "&amp;D12&amp;" "&amp;IF(E12&lt;&gt;"","("&amp;E12&amp;")","")&amp;IF(C13&lt;&gt;"",",","")</f>
+        <v>keido double ,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>4</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="3">
+        <v>4</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" t="str">
+        <f>C13&amp;" "&amp;D13&amp;" "&amp;IF(E13&lt;&gt;"","("&amp;E13&amp;")","")&amp;IF(C14&lt;&gt;"",",","")</f>
+        <v>name varchar (4)</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="L14" t="str">
+        <f>C14&amp;" "&amp;D14&amp;" "&amp;IF(E14&lt;&gt;"","("&amp;E14&amp;")","")&amp;IF(C15&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>6</v>
+      </c>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="L15" t="str">
+        <f t="shared" ref="L15:L29" si="0">C15&amp;" "&amp;D15&amp;" "&amp;IF(E15&lt;&gt;"","("&amp;E15&amp;")","")&amp;IF(C16&lt;&gt;"",",","")</f>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>7</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="L16" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>8</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="L17" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>9</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="L18" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>10</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="L19" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="L20" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>12</v>
+      </c>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="L21" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="L22" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>14</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="L23" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>15</v>
+      </c>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="L24" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>16</v>
+      </c>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="L25" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>17</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="L26" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
+        <v>18</v>
+      </c>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="L27" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
+        <v>19</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="L28" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
+        <v>20</v>
+      </c>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="L29" t="str">
+        <f t="shared" si="0"/>
+        <v xml:space="preserve">  </v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67EBBFA3-212D-47E4-BFB0-B16EFE02E638}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -3936,7 +4567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D8D3F88-633E-4F83-B94E-FFB123D86DC6}">
   <dimension ref="A4:H24"/>
   <sheetViews>

--- a/doc/04_DB定義書_KSHMY.xlsx
+++ b/doc/04_DB定義書_KSHMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{377DA178-F94C-4544-A076-053EEB31CB71}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4020F8-9D80-4061-9B8C-CA7A9CB2AAC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="103">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -623,6 +623,10 @@
     <rPh sb="4" eb="6">
       <t>セイヤク</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>users_number</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1418,7 +1422,7 @@
   <dimension ref="A1:L33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2515,7 +2519,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -2652,7 +2656,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
@@ -2669,7 +2673,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>users_number int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3040,7 +3044,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -3179,7 +3183,7 @@
         <v>35</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>102</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>60</v>
@@ -3194,7 +3198,7 @@
       <c r="J11" s="3"/>
       <c r="L11" t="str">
         <f>C11&amp;" "&amp;D11&amp;" "&amp;IF(E11&lt;&gt;"","("&amp;E11&amp;")","")&amp;IF(C12&lt;&gt;"",",","")</f>
-        <v>id int ,</v>
+        <v>users_number int ,</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -3573,6 +3577,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3581,7 +3586,7 @@
   <dimension ref="A1:L30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>

--- a/doc/04_DB定義書_KSHMY.xlsx
+++ b/doc/04_DB定義書_KSHMY.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4020F8-9D80-4061-9B8C-CA7A9CB2AAC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{241CF097-312C-4E8D-BADD-E38242C55EB4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1421,8 +1421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
@@ -1672,7 +1672,7 @@
         <v>99</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="E15" s="3">
         <v>4</v>
@@ -3585,7 +3585,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E80ECA74-8016-4F38-8962-412A76A3AEC3}">
   <dimension ref="A1:L30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
